--- a/public/excel_template/divisi_template.xlsx
+++ b/public/excel_template/divisi_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Web Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D903E603-5814-483A-829A-351651222A7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B373C882-BD00-49CD-B02E-5871BEF72729}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{E5BC81D8-AF7C-4E82-92C6-57E1B1B676A2}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{E8DDA7A4-A9B4-4362-8855-701D6A076ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>nama_apps</t>
+  </si>
+  <si>
     <t>nama_divisi</t>
-  </si>
-  <si>
-    <t>nama_apps</t>
   </si>
   <si>
     <t>divisi1</t>
@@ -49,19 +49,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF252422"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -72,21 +66,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -94,25 +82,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFDEE2E6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,45 +402,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993BCA5B-6FD6-416C-838F-0610917915A0}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD72FA7B-E1EA-4970-9D8F-920EE67671A8}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
